--- a/cluster_0.xlsx
+++ b/cluster_0.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhsuh\OneDrive\Desktop\Filtrix\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -11522,8 +11517,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11586,14 +11581,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -11640,7 +11627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11672,10 +11659,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11707,7 +11693,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11883,27 +11868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="226.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11935,7 +11907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -11967,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -11999,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -12031,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -12063,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -12095,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -12127,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12159,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -12191,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -12223,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -12255,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -12287,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -12319,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -12351,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -12383,7 +12355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -12415,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -12447,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -12479,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -12511,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -12543,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -12575,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -12607,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -12639,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -12671,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -12703,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -12735,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -12767,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -12799,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -12831,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -12863,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -12895,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -12927,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -12959,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -12991,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -13023,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -13055,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -13087,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -13119,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -13151,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -13183,7 +13155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -13215,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -13247,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -13279,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -13311,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -13343,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -13375,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -13407,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -13439,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -13471,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -13503,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -13535,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -13567,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -13599,7 +13571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -13631,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -13663,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -13695,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -13727,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -13759,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -13791,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -13823,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -13855,7 +13827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -13887,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -13919,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -13951,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -13983,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -14015,7 +13987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -14047,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -14079,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -14111,7 +14083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -14143,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -14175,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -14207,7 +14179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -14239,7 +14211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -14271,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -14303,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -14335,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -14367,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -14399,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -14431,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -14463,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -14495,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -14527,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -14559,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -14591,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -14623,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -14655,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -14687,7 +14659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -14719,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -14751,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -14783,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>60</v>
       </c>
@@ -14815,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -14847,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>63</v>
       </c>
@@ -14879,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>64</v>
       </c>
@@ -14911,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -14943,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>65</v>
       </c>
@@ -14975,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>59</v>
       </c>
@@ -15007,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>66</v>
       </c>
@@ -15039,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>67</v>
       </c>
@@ -15071,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>68</v>
       </c>
@@ -15103,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>69</v>
       </c>
@@ -15135,7 +15107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -15167,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>71</v>
       </c>
@@ -15199,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>72</v>
       </c>
@@ -15231,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>73</v>
       </c>
@@ -15263,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>73</v>
       </c>
@@ -15295,7 +15267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>74</v>
       </c>
@@ -15327,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>72</v>
       </c>
@@ -15359,7 +15331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>72</v>
       </c>
@@ -15391,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>75</v>
       </c>
@@ -15423,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>75</v>
       </c>
@@ -15455,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -15487,7 +15459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>73</v>
       </c>
@@ -15519,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -15551,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>73</v>
       </c>
@@ -15583,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>76</v>
       </c>
@@ -15615,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>77</v>
       </c>
@@ -15647,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -15679,7 +15651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>72</v>
       </c>
@@ -15711,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -15743,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -15775,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>78</v>
       </c>
@@ -15807,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -15839,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>73</v>
       </c>
@@ -15871,7 +15843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>73</v>
       </c>
@@ -15903,7 +15875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -15935,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>78</v>
       </c>
@@ -15967,7 +15939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>79</v>
       </c>
@@ -15999,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>80</v>
       </c>
@@ -16031,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>73</v>
       </c>
@@ -16063,7 +16035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>81</v>
       </c>
@@ -16095,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>73</v>
       </c>
@@ -16127,7 +16099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>73</v>
       </c>
@@ -16159,7 +16131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>73</v>
       </c>
@@ -16191,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>73</v>
       </c>
@@ -16223,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>73</v>
       </c>
@@ -16255,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>72</v>
       </c>
@@ -16287,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>73</v>
       </c>
@@ -16319,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -16351,7 +16323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>83</v>
       </c>
@@ -16383,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>72</v>
       </c>
@@ -16415,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>72</v>
       </c>
@@ -16447,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>72</v>
       </c>
@@ -16479,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>72</v>
       </c>
@@ -16511,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>72</v>
       </c>
@@ -16543,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>72</v>
       </c>
@@ -16575,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>72</v>
       </c>
@@ -16607,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>72</v>
       </c>
@@ -16639,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>72</v>
       </c>
@@ -16671,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>73</v>
       </c>
@@ -16703,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -16735,7 +16707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>84</v>
       </c>
@@ -16767,7 +16739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>85</v>
       </c>
@@ -16799,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>85</v>
       </c>
@@ -16831,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>86</v>
       </c>
@@ -16863,7 +16835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>87</v>
       </c>
@@ -16895,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -16927,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -16959,7 +16931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -16991,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -17023,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>91</v>
       </c>
@@ -17055,7 +17027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -17087,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>92</v>
       </c>
@@ -17119,7 +17091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -17151,7 +17123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>93</v>
       </c>
@@ -17183,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -17215,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>87</v>
       </c>
@@ -17247,7 +17219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>87</v>
       </c>
@@ -17279,7 +17251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>84</v>
       </c>
@@ -17311,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>94</v>
       </c>
@@ -17343,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -17375,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -17407,7 +17379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>84</v>
       </c>
@@ -17439,7 +17411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>95</v>
       </c>
@@ -17471,7 +17443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>96</v>
       </c>
@@ -17503,7 +17475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>97</v>
       </c>
@@ -17535,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>84</v>
       </c>
@@ -17567,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>98</v>
       </c>
@@ -17599,7 +17571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>99</v>
       </c>
@@ -17631,7 +17603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>100</v>
       </c>
@@ -17663,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>101</v>
       </c>
@@ -17695,7 +17667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>69</v>
       </c>
@@ -17727,7 +17699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>102</v>
       </c>
@@ -17759,7 +17731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>102</v>
       </c>
@@ -17791,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>103</v>
       </c>
@@ -17823,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
         <v>102</v>
       </c>
@@ -17855,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>102</v>
       </c>
@@ -17887,7 +17859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
         <v>102</v>
       </c>
@@ -17919,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>103</v>
       </c>
@@ -17951,7 +17923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
         <v>104</v>
       </c>
@@ -17983,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>105</v>
       </c>
@@ -18015,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>103</v>
       </c>
@@ -18047,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>103</v>
       </c>
@@ -18079,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>102</v>
       </c>
@@ -18111,7 +18083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>103</v>
       </c>
@@ -18143,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>103</v>
       </c>
@@ -18175,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>106</v>
       </c>
@@ -18207,7 +18179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>106</v>
       </c>
@@ -18239,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>106</v>
       </c>
@@ -18271,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>106</v>
       </c>
@@ -18303,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>106</v>
       </c>
@@ -18335,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>106</v>
       </c>
@@ -18367,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>107</v>
       </c>
@@ -18399,7 +18371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>107</v>
       </c>
@@ -18431,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>108</v>
       </c>
@@ -18463,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>102</v>
       </c>
@@ -18495,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>109</v>
       </c>
@@ -18527,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>110</v>
       </c>
@@ -18559,7 +18531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>60</v>
       </c>
@@ -18591,7 +18563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>69</v>
       </c>
@@ -18623,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>103</v>
       </c>
@@ -18655,7 +18627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>110</v>
       </c>
@@ -18687,7 +18659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>84</v>
       </c>
@@ -18719,7 +18691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>111</v>
       </c>
@@ -18751,7 +18723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>112</v>
       </c>
@@ -18783,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>113</v>
       </c>
@@ -18815,7 +18787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>114</v>
       </c>
@@ -18847,7 +18819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>115</v>
       </c>
@@ -18879,7 +18851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>116</v>
       </c>
@@ -18911,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>117</v>
       </c>
@@ -18943,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>118</v>
       </c>
@@ -18975,7 +18947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>118</v>
       </c>
@@ -19007,7 +18979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>118</v>
       </c>
@@ -19039,7 +19011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>118</v>
       </c>
@@ -19071,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>118</v>
       </c>
@@ -19103,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>118</v>
       </c>
@@ -19135,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>118</v>
       </c>
@@ -19167,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>118</v>
       </c>
@@ -19199,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>118</v>
       </c>
@@ -19231,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>118</v>
       </c>
@@ -19263,7 +19235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
         <v>118</v>
       </c>
@@ -19295,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>118</v>
       </c>
@@ -19327,7 +19299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>118</v>
       </c>
@@ -19359,7 +19331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
         <v>118</v>
       </c>
@@ -19391,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
         <v>118</v>
       </c>
@@ -19423,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>118</v>
       </c>
@@ -19455,7 +19427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>84</v>
       </c>
@@ -19487,7 +19459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>112</v>
       </c>
@@ -19519,7 +19491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>118</v>
       </c>
@@ -19551,7 +19523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>118</v>
       </c>
@@ -19583,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
         <v>119</v>
       </c>
@@ -19615,7 +19587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
         <v>118</v>
       </c>
@@ -19647,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
         <v>120</v>
       </c>
@@ -19679,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
         <v>121</v>
       </c>
@@ -19711,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
         <v>122</v>
       </c>
@@ -19743,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
         <v>121</v>
       </c>
@@ -19775,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
         <v>118</v>
       </c>
@@ -19807,7 +19779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
         <v>118</v>
       </c>
@@ -19839,7 +19811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
         <v>118</v>
       </c>
@@ -19871,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
         <v>118</v>
       </c>
@@ -19903,7 +19875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
         <v>118</v>
       </c>
@@ -19935,7 +19907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10">
       <c r="A252" t="s">
         <v>118</v>
       </c>
@@ -19967,7 +19939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10">
       <c r="A253" t="s">
         <v>118</v>
       </c>
@@ -19999,7 +19971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10">
       <c r="A254" t="s">
         <v>112</v>
       </c>
@@ -20031,7 +20003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10">
       <c r="A255" t="s">
         <v>118</v>
       </c>
@@ -20063,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10">
       <c r="A256" t="s">
         <v>118</v>
       </c>
@@ -20095,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>123</v>
       </c>
@@ -20127,7 +20099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10">
       <c r="A258" t="s">
         <v>124</v>
       </c>
@@ -20159,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>118</v>
       </c>
@@ -20191,7 +20163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10">
       <c r="A260" t="s">
         <v>125</v>
       </c>
@@ -20223,7 +20195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>126</v>
       </c>
@@ -20255,7 +20227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>126</v>
       </c>
@@ -20287,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>126</v>
       </c>
@@ -20319,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10">
       <c r="A264" t="s">
         <v>126</v>
       </c>
@@ -20351,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10">
       <c r="A265" t="s">
         <v>126</v>
       </c>
@@ -20383,7 +20355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>126</v>
       </c>
@@ -20415,7 +20387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>127</v>
       </c>
@@ -20447,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>118</v>
       </c>
@@ -20479,7 +20451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>128</v>
       </c>
@@ -20511,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>129</v>
       </c>
@@ -20543,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>118</v>
       </c>
@@ -20575,7 +20547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>130</v>
       </c>
@@ -20607,7 +20579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10">
       <c r="A273" t="s">
         <v>112</v>
       </c>
@@ -20639,7 +20611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10">
       <c r="A274" t="s">
         <v>112</v>
       </c>
@@ -20671,7 +20643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10">
       <c r="A275" t="s">
         <v>131</v>
       </c>
@@ -20703,7 +20675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10">
       <c r="A276" t="s">
         <v>132</v>
       </c>
@@ -20735,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10">
       <c r="A277" t="s">
         <v>123</v>
       </c>
@@ -20767,7 +20739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10">
       <c r="A278" t="s">
         <v>84</v>
       </c>
@@ -20799,7 +20771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>133</v>
       </c>
@@ -20831,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10">
       <c r="A280" t="s">
         <v>125</v>
       </c>
@@ -20863,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10">
       <c r="A281" t="s">
         <v>84</v>
       </c>
@@ -20895,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10">
       <c r="A282" t="s">
         <v>134</v>
       </c>
@@ -20927,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10">
       <c r="A283" t="s">
         <v>134</v>
       </c>
@@ -20959,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10">
       <c r="A284" t="s">
         <v>134</v>
       </c>
@@ -20991,7 +20963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10">
       <c r="A285" t="s">
         <v>135</v>
       </c>
@@ -21023,7 +20995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10">
       <c r="A286" t="s">
         <v>136</v>
       </c>
@@ -21055,7 +21027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10">
       <c r="A287" t="s">
         <v>84</v>
       </c>
@@ -21087,7 +21059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10">
       <c r="A288" t="s">
         <v>137</v>
       </c>
@@ -21119,7 +21091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10">
       <c r="A289" t="s">
         <v>138</v>
       </c>
@@ -21151,7 +21123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10">
       <c r="A290" t="s">
         <v>136</v>
       </c>
@@ -21183,7 +21155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10">
       <c r="A291" t="s">
         <v>136</v>
       </c>
@@ -21215,7 +21187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10">
       <c r="A292" t="s">
         <v>139</v>
       </c>
@@ -21247,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10">
       <c r="A293" t="s">
         <v>140</v>
       </c>
@@ -21279,7 +21251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10">
       <c r="A294" t="s">
         <v>46</v>
       </c>
@@ -21311,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10">
       <c r="A295" t="s">
         <v>141</v>
       </c>
@@ -21343,7 +21315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10">
       <c r="A296" t="s">
         <v>138</v>
       </c>
@@ -21375,7 +21347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10">
       <c r="A297" t="s">
         <v>142</v>
       </c>
@@ -21407,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10">
       <c r="A298" t="s">
         <v>143</v>
       </c>
@@ -21439,7 +21411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10">
       <c r="A299" t="s">
         <v>144</v>
       </c>
@@ -21471,7 +21443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10">
       <c r="A300" t="s">
         <v>145</v>
       </c>
@@ -21503,7 +21475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10">
       <c r="A301" t="s">
         <v>146</v>
       </c>
@@ -21535,7 +21507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10">
       <c r="A302" t="s">
         <v>146</v>
       </c>
@@ -21567,7 +21539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10">
       <c r="A303" t="s">
         <v>145</v>
       </c>
@@ -21599,7 +21571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10">
       <c r="A304" t="s">
         <v>146</v>
       </c>
@@ -21631,7 +21603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10">
       <c r="A305" t="s">
         <v>146</v>
       </c>
@@ -21663,7 +21635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10">
       <c r="A306" t="s">
         <v>146</v>
       </c>
@@ -21695,7 +21667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10">
       <c r="A307" t="s">
         <v>145</v>
       </c>
@@ -21727,7 +21699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10">
       <c r="A308" t="s">
         <v>146</v>
       </c>
@@ -21759,7 +21731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10">
       <c r="A309" t="s">
         <v>146</v>
       </c>
@@ -21791,7 +21763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10">
       <c r="A310" t="s">
         <v>145</v>
       </c>
@@ -21823,7 +21795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10">
       <c r="A311" t="s">
         <v>145</v>
       </c>
@@ -21855,7 +21827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10">
       <c r="A312" t="s">
         <v>145</v>
       </c>
@@ -21887,7 +21859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10">
       <c r="A313" t="s">
         <v>147</v>
       </c>
@@ -21919,7 +21891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10">
       <c r="A314" t="s">
         <v>146</v>
       </c>
@@ -21951,7 +21923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10">
       <c r="A315" t="s">
         <v>145</v>
       </c>
@@ -21983,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10">
       <c r="A316" t="s">
         <v>146</v>
       </c>
@@ -22015,7 +21987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10">
       <c r="A317" t="s">
         <v>146</v>
       </c>
@@ -22047,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10">
       <c r="A318" t="s">
         <v>148</v>
       </c>
@@ -22079,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10">
       <c r="A319" t="s">
         <v>149</v>
       </c>
@@ -22111,7 +22083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10">
       <c r="A320" t="s">
         <v>145</v>
       </c>
@@ -22143,7 +22115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10">
       <c r="A321" t="s">
         <v>150</v>
       </c>
@@ -22175,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10">
       <c r="A322" t="s">
         <v>151</v>
       </c>
@@ -22207,7 +22179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10">
       <c r="A323" t="s">
         <v>152</v>
       </c>
@@ -22239,7 +22211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10">
       <c r="A324" t="s">
         <v>152</v>
       </c>
@@ -22271,7 +22243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10">
       <c r="A325" t="s">
         <v>153</v>
       </c>
@@ -22303,7 +22275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10">
       <c r="A326" t="s">
         <v>31</v>
       </c>
@@ -22335,7 +22307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10">
       <c r="A327" t="s">
         <v>154</v>
       </c>
@@ -22367,7 +22339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10">
       <c r="A328" t="s">
         <v>84</v>
       </c>
@@ -22399,7 +22371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10">
       <c r="A329" t="s">
         <v>71</v>
       </c>
@@ -22431,7 +22403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10">
       <c r="A330" t="s">
         <v>155</v>
       </c>
@@ -22463,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10">
       <c r="A331" t="s">
         <v>138</v>
       </c>
@@ -22495,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10">
       <c r="A332" t="s">
         <v>112</v>
       </c>
@@ -22527,7 +22499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10">
       <c r="A333" t="s">
         <v>156</v>
       </c>
@@ -22559,7 +22531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10">
       <c r="A334" t="s">
         <v>84</v>
       </c>
@@ -22591,7 +22563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10">
       <c r="A335" t="s">
         <v>154</v>
       </c>
@@ -22623,7 +22595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10">
       <c r="A336" t="s">
         <v>157</v>
       </c>
@@ -22655,7 +22627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10">
       <c r="A337" t="s">
         <v>154</v>
       </c>
@@ -22687,7 +22659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10">
       <c r="A338" t="s">
         <v>158</v>
       </c>
@@ -22719,7 +22691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -22751,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10">
       <c r="A340" t="s">
         <v>159</v>
       </c>
@@ -22783,7 +22755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10">
       <c r="A341" t="s">
         <v>112</v>
       </c>
@@ -22815,7 +22787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10">
       <c r="A342" t="s">
         <v>160</v>
       </c>
@@ -22847,7 +22819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10">
       <c r="A343" t="s">
         <v>92</v>
       </c>
@@ -22879,7 +22851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10">
       <c r="A344" t="s">
         <v>100</v>
       </c>
@@ -22911,7 +22883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10">
       <c r="A345" t="s">
         <v>161</v>
       </c>
@@ -22943,7 +22915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10">
       <c r="A346" t="s">
         <v>162</v>
       </c>
@@ -22975,7 +22947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10">
       <c r="A347" t="s">
         <v>163</v>
       </c>
@@ -23007,7 +22979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10">
       <c r="A348" t="s">
         <v>163</v>
       </c>
@@ -23039,7 +23011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10">
       <c r="A349" t="s">
         <v>112</v>
       </c>
@@ -23071,7 +23043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10">
       <c r="A350" t="s">
         <v>162</v>
       </c>
@@ -23103,7 +23075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10">
       <c r="A351" t="s">
         <v>162</v>
       </c>
@@ -23135,7 +23107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10">
       <c r="A352" t="s">
         <v>164</v>
       </c>
@@ -23167,7 +23139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10">
       <c r="A353" t="s">
         <v>165</v>
       </c>
@@ -23199,7 +23171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10">
       <c r="A354" t="s">
         <v>166</v>
       </c>
@@ -23231,7 +23203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10">
       <c r="A355" t="s">
         <v>167</v>
       </c>
@@ -23263,7 +23235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10">
       <c r="A356" t="s">
         <v>168</v>
       </c>
@@ -23295,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10">
       <c r="A357" t="s">
         <v>90</v>
       </c>
@@ -23327,7 +23299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10">
       <c r="A358" t="s">
         <v>169</v>
       </c>
@@ -23359,7 +23331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10">
       <c r="A359" t="s">
         <v>170</v>
       </c>
@@ -23391,7 +23363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10">
       <c r="A360" t="s">
         <v>84</v>
       </c>
@@ -23423,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10">
       <c r="A361" t="s">
         <v>138</v>
       </c>
@@ -23455,7 +23427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10">
       <c r="A362" t="s">
         <v>171</v>
       </c>
@@ -23487,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10">
       <c r="A363" t="s">
         <v>172</v>
       </c>
@@ -23519,7 +23491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10">
       <c r="A364" t="s">
         <v>173</v>
       </c>
@@ -23551,7 +23523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10">
       <c r="A365" t="s">
         <v>174</v>
       </c>
@@ -23583,7 +23555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10">
       <c r="A366" t="s">
         <v>104</v>
       </c>
@@ -23615,7 +23587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10">
       <c r="A367" t="s">
         <v>104</v>
       </c>
@@ -23647,7 +23619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10">
       <c r="A368" t="s">
         <v>175</v>
       </c>
@@ -23679,7 +23651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10">
       <c r="A369" t="s">
         <v>176</v>
       </c>
@@ -23711,7 +23683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10">
       <c r="A370" t="s">
         <v>176</v>
       </c>
@@ -23743,7 +23715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10">
       <c r="A371" t="s">
         <v>177</v>
       </c>
@@ -23775,7 +23747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10">
       <c r="A372" t="s">
         <v>84</v>
       </c>
@@ -23807,7 +23779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10">
       <c r="A373" t="s">
         <v>177</v>
       </c>
@@ -23839,7 +23811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10">
       <c r="A374" t="s">
         <v>138</v>
       </c>
@@ -23871,7 +23843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10">
       <c r="A375" t="s">
         <v>178</v>
       </c>
@@ -23903,7 +23875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10">
       <c r="A376" t="s">
         <v>179</v>
       </c>
@@ -23935,7 +23907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10">
       <c r="A377" t="s">
         <v>180</v>
       </c>
@@ -23967,7 +23939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10">
       <c r="A378" t="s">
         <v>142</v>
       </c>
@@ -23999,7 +23971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10">
       <c r="A379" t="s">
         <v>118</v>
       </c>
@@ -24031,7 +24003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10">
       <c r="A380" t="s">
         <v>142</v>
       </c>
@@ -24063,7 +24035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10">
       <c r="A381" t="s">
         <v>104</v>
       </c>
@@ -24095,7 +24067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10">
       <c r="A382" t="s">
         <v>181</v>
       </c>
@@ -24127,7 +24099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10">
       <c r="A383" t="s">
         <v>181</v>
       </c>
@@ -24159,7 +24131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10">
       <c r="A384" t="s">
         <v>182</v>
       </c>
@@ -24191,7 +24163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10">
       <c r="A385" t="s">
         <v>183</v>
       </c>
@@ -24223,7 +24195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10">
       <c r="A386" t="s">
         <v>184</v>
       </c>
@@ -24255,7 +24227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10">
       <c r="A387" t="s">
         <v>180</v>
       </c>
@@ -24287,7 +24259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10">
       <c r="A388" t="s">
         <v>142</v>
       </c>
@@ -24319,7 +24291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10">
       <c r="A389" t="s">
         <v>185</v>
       </c>
@@ -24351,7 +24323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10">
       <c r="A390" t="s">
         <v>185</v>
       </c>
@@ -24383,7 +24355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10">
       <c r="A391" t="s">
         <v>185</v>
       </c>
@@ -24415,7 +24387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10">
       <c r="A392" t="s">
         <v>186</v>
       </c>
@@ -24447,7 +24419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10">
       <c r="A393" t="s">
         <v>183</v>
       </c>
@@ -24479,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10">
       <c r="A394" t="s">
         <v>183</v>
       </c>
@@ -24511,7 +24483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10">
       <c r="A395" t="s">
         <v>187</v>
       </c>
@@ -24543,7 +24515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10">
       <c r="A396" t="s">
         <v>188</v>
       </c>
@@ -24575,7 +24547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10">
       <c r="A397" t="s">
         <v>189</v>
       </c>
@@ -24607,7 +24579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10">
       <c r="A398" t="s">
         <v>190</v>
       </c>
@@ -24639,7 +24611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10">
       <c r="A399" t="s">
         <v>191</v>
       </c>
@@ -24671,7 +24643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10">
       <c r="A400" t="s">
         <v>192</v>
       </c>
@@ -24703,7 +24675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10">
       <c r="A401" t="s">
         <v>169</v>
       </c>
@@ -24735,7 +24707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10">
       <c r="A402" t="s">
         <v>193</v>
       </c>
@@ -24767,7 +24739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10">
       <c r="A403" t="s">
         <v>191</v>
       </c>
@@ -24799,7 +24771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10">
       <c r="A404" t="s">
         <v>193</v>
       </c>
@@ -24831,7 +24803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10">
       <c r="A405" t="s">
         <v>191</v>
       </c>
@@ -24863,7 +24835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10">
       <c r="A406" t="s">
         <v>193</v>
       </c>
@@ -24895,7 +24867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10">
       <c r="A407" t="s">
         <v>194</v>
       </c>
@@ -24927,7 +24899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10">
       <c r="A408" t="s">
         <v>194</v>
       </c>
@@ -24959,7 +24931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10">
       <c r="A409" t="s">
         <v>195</v>
       </c>
@@ -24991,7 +24963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10">
       <c r="A410" t="s">
         <v>195</v>
       </c>
@@ -25023,7 +24995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10">
       <c r="A411" t="s">
         <v>195</v>
       </c>
@@ -25055,7 +25027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10">
       <c r="A412" t="s">
         <v>196</v>
       </c>
@@ -25087,7 +25059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10">
       <c r="A413" t="s">
         <v>197</v>
       </c>
@@ -25119,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10">
       <c r="A414" t="s">
         <v>198</v>
       </c>
@@ -25151,7 +25123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10">
       <c r="A415" t="s">
         <v>198</v>
       </c>
@@ -25183,7 +25155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10">
       <c r="A416" t="s">
         <v>199</v>
       </c>
@@ -25215,7 +25187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10">
       <c r="A417" t="s">
         <v>102</v>
       </c>
@@ -25247,7 +25219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10">
       <c r="A418" t="s">
         <v>200</v>
       </c>
@@ -25279,7 +25251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10">
       <c r="A419" t="s">
         <v>201</v>
       </c>
@@ -25311,7 +25283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10">
       <c r="A420" t="s">
         <v>112</v>
       </c>
@@ -25343,7 +25315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10">
       <c r="A421" t="s">
         <v>182</v>
       </c>
@@ -25375,7 +25347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10">
       <c r="A422" t="s">
         <v>202</v>
       </c>
@@ -25407,7 +25379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10">
       <c r="A423" t="s">
         <v>190</v>
       </c>
@@ -25439,7 +25411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10">
       <c r="A424" t="s">
         <v>190</v>
       </c>
@@ -25471,7 +25443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10">
       <c r="A425" t="s">
         <v>188</v>
       </c>
@@ -25503,7 +25475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10">
       <c r="A426" t="s">
         <v>104</v>
       </c>
@@ -25535,7 +25507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10">
       <c r="A427" t="s">
         <v>84</v>
       </c>
@@ -25567,7 +25539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10">
       <c r="A428" t="s">
         <v>203</v>
       </c>
@@ -25599,7 +25571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10">
       <c r="A429" t="s">
         <v>204</v>
       </c>
@@ -25631,7 +25603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10">
       <c r="A430" t="s">
         <v>205</v>
       </c>
@@ -25663,7 +25635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10">
       <c r="A431" t="s">
         <v>204</v>
       </c>
@@ -25695,7 +25667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10">
       <c r="A432" t="s">
         <v>206</v>
       </c>
@@ -25727,7 +25699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10">
       <c r="A433" t="s">
         <v>188</v>
       </c>
@@ -25759,7 +25731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10">
       <c r="A434" t="s">
         <v>207</v>
       </c>
@@ -25791,7 +25763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10">
       <c r="A435" t="s">
         <v>208</v>
       </c>
@@ -25823,7 +25795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10">
       <c r="A436" t="s">
         <v>209</v>
       </c>
@@ -25855,7 +25827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10">
       <c r="A437" t="s">
         <v>209</v>
       </c>
@@ -25887,7 +25859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10">
       <c r="A438" t="s">
         <v>208</v>
       </c>
@@ -25919,7 +25891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10">
       <c r="A439" t="s">
         <v>209</v>
       </c>
@@ -25951,7 +25923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10">
       <c r="A440" t="s">
         <v>209</v>
       </c>
@@ -25983,7 +25955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10">
       <c r="A441" t="s">
         <v>208</v>
       </c>
@@ -26015,7 +25987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10">
       <c r="A442" t="s">
         <v>188</v>
       </c>
@@ -26047,7 +26019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10">
       <c r="A443" t="s">
         <v>210</v>
       </c>
@@ -26079,7 +26051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10">
       <c r="A444" t="s">
         <v>209</v>
       </c>
@@ -26111,7 +26083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10">
       <c r="A445" t="s">
         <v>69</v>
       </c>
@@ -26143,7 +26115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10">
       <c r="A446" t="s">
         <v>211</v>
       </c>
@@ -26175,7 +26147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10">
       <c r="A447" t="s">
         <v>154</v>
       </c>
@@ -26207,7 +26179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10">
       <c r="A448" t="s">
         <v>206</v>
       </c>
@@ -26239,7 +26211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10">
       <c r="A449" t="s">
         <v>154</v>
       </c>
@@ -26271,7 +26243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10">
       <c r="A450" t="s">
         <v>212</v>
       </c>
@@ -26303,7 +26275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10">
       <c r="A451" t="s">
         <v>209</v>
       </c>
@@ -26335,7 +26307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10">
       <c r="A452" t="s">
         <v>69</v>
       </c>
@@ -26367,7 +26339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10">
       <c r="A453" t="s">
         <v>208</v>
       </c>
@@ -26399,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10">
       <c r="A454" t="s">
         <v>213</v>
       </c>
@@ -26431,7 +26403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10">
       <c r="A455" t="s">
         <v>214</v>
       </c>
@@ -26463,7 +26435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10">
       <c r="A456" t="s">
         <v>84</v>
       </c>
@@ -26495,7 +26467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10">
       <c r="A457" t="s">
         <v>84</v>
       </c>
@@ -26527,7 +26499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10">
       <c r="A458" t="s">
         <v>214</v>
       </c>
@@ -26559,7 +26531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10">
       <c r="A459" t="s">
         <v>154</v>
       </c>
@@ -26591,7 +26563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10">
       <c r="A460" t="s">
         <v>154</v>
       </c>
@@ -26623,7 +26595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10">
       <c r="A461" t="s">
         <v>215</v>
       </c>
@@ -26655,7 +26627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10">
       <c r="A462" t="s">
         <v>112</v>
       </c>
@@ -26687,7 +26659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10">
       <c r="A463" t="s">
         <v>216</v>
       </c>
@@ -26719,7 +26691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10">
       <c r="A464" t="s">
         <v>204</v>
       </c>
@@ -26751,7 +26723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10">
       <c r="A465" t="s">
         <v>92</v>
       </c>
@@ -26783,7 +26755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10">
       <c r="A466" t="s">
         <v>31</v>
       </c>
@@ -26815,7 +26787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10">
       <c r="A467" t="s">
         <v>217</v>
       </c>
@@ -26847,7 +26819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10">
       <c r="A468" t="s">
         <v>84</v>
       </c>
@@ -26879,7 +26851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10">
       <c r="A469" t="s">
         <v>218</v>
       </c>
@@ -26911,7 +26883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10">
       <c r="A470" t="s">
         <v>84</v>
       </c>
@@ -26943,7 +26915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10">
       <c r="A471" t="s">
         <v>182</v>
       </c>
@@ -26975,7 +26947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10">
       <c r="A472" t="s">
         <v>84</v>
       </c>
@@ -27007,7 +26979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10">
       <c r="A473" t="s">
         <v>219</v>
       </c>
@@ -27039,7 +27011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10">
       <c r="A474" t="s">
         <v>220</v>
       </c>
@@ -27071,7 +27043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10">
       <c r="A475" t="s">
         <v>221</v>
       </c>
@@ -27103,7 +27075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10">
       <c r="A476" t="s">
         <v>222</v>
       </c>
@@ -27135,7 +27107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10">
       <c r="A477" t="s">
         <v>219</v>
       </c>
@@ -27167,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10">
       <c r="A478" t="s">
         <v>223</v>
       </c>
@@ -27199,7 +27171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10">
       <c r="A479" t="s">
         <v>224</v>
       </c>
@@ -27231,7 +27203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10">
       <c r="A480" t="s">
         <v>225</v>
       </c>
@@ -27263,7 +27235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10">
       <c r="A481" t="s">
         <v>225</v>
       </c>
@@ -27295,7 +27267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10">
       <c r="A482" t="s">
         <v>226</v>
       </c>
@@ -27327,7 +27299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10">
       <c r="A483" t="s">
         <v>193</v>
       </c>
@@ -27359,7 +27331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10">
       <c r="A484" t="s">
         <v>204</v>
       </c>
@@ -27391,7 +27363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10">
       <c r="A485" t="s">
         <v>227</v>
       </c>
@@ -27423,7 +27395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10">
       <c r="A486" t="s">
         <v>228</v>
       </c>
@@ -27455,7 +27427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10">
       <c r="A487" t="s">
         <v>229</v>
       </c>
@@ -27487,7 +27459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10">
       <c r="A488" t="s">
         <v>230</v>
       </c>
@@ -27519,7 +27491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10">
       <c r="A489" t="s">
         <v>229</v>
       </c>
@@ -27551,7 +27523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10">
       <c r="A490" t="s">
         <v>42</v>
       </c>
@@ -27583,7 +27555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10">
       <c r="A491" t="s">
         <v>84</v>
       </c>
@@ -27615,7 +27587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10">
       <c r="A492" t="s">
         <v>169</v>
       </c>
@@ -27647,7 +27619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10">
       <c r="A493" t="s">
         <v>169</v>
       </c>
@@ -27679,7 +27651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10">
       <c r="A494" t="s">
         <v>189</v>
       </c>
@@ -27711,7 +27683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10">
       <c r="A495" t="s">
         <v>169</v>
       </c>
@@ -27743,7 +27715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10">
       <c r="A496" t="s">
         <v>189</v>
       </c>
@@ -27775,7 +27747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10">
       <c r="A497" t="s">
         <v>231</v>
       </c>
@@ -27807,7 +27779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10">
       <c r="A498" t="s">
         <v>232</v>
       </c>
@@ -27839,7 +27811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10">
       <c r="A499" t="s">
         <v>169</v>
       </c>
@@ -27871,7 +27843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10">
       <c r="A500" t="s">
         <v>192</v>
       </c>
@@ -27903,7 +27875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10">
       <c r="A501" t="s">
         <v>233</v>
       </c>
@@ -27935,7 +27907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10">
       <c r="A502" t="s">
         <v>234</v>
       </c>
@@ -27967,7 +27939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10">
       <c r="A503" t="s">
         <v>235</v>
       </c>
@@ -27999,7 +27971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10">
       <c r="A504" t="s">
         <v>236</v>
       </c>
@@ -28031,7 +28003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10">
       <c r="A505" t="s">
         <v>192</v>
       </c>
@@ -28063,7 +28035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10">
       <c r="A506" t="s">
         <v>235</v>
       </c>
@@ -28095,7 +28067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10">
       <c r="A507" t="s">
         <v>82</v>
       </c>
@@ -28127,7 +28099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10">
       <c r="A508" t="s">
         <v>237</v>
       </c>
@@ -28159,7 +28131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10">
       <c r="A509" t="s">
         <v>238</v>
       </c>
@@ -28191,7 +28163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10">
       <c r="A510" t="s">
         <v>239</v>
       </c>
@@ -28223,7 +28195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10">
       <c r="A511" t="s">
         <v>84</v>
       </c>
@@ -28255,7 +28227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10">
       <c r="A512" t="s">
         <v>240</v>
       </c>
@@ -28287,7 +28259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10">
       <c r="A513" t="s">
         <v>31</v>
       </c>
@@ -28319,7 +28291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10">
       <c r="A514" t="s">
         <v>31</v>
       </c>
@@ -28351,7 +28323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10">
       <c r="A515" t="s">
         <v>241</v>
       </c>
@@ -28383,7 +28355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10">
       <c r="A516" t="s">
         <v>235</v>
       </c>
@@ -28415,7 +28387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10">
       <c r="A517" t="s">
         <v>216</v>
       </c>
@@ -28447,7 +28419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10">
       <c r="A518" t="s">
         <v>235</v>
       </c>
@@ -28479,7 +28451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10">
       <c r="A519" t="s">
         <v>235</v>
       </c>
@@ -28511,7 +28483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10">
       <c r="A520" t="s">
         <v>242</v>
       </c>
@@ -28543,7 +28515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10">
       <c r="A521" t="s">
         <v>235</v>
       </c>
@@ -28575,7 +28547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10">
       <c r="A522" t="s">
         <v>235</v>
       </c>
@@ -28607,7 +28579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10">
       <c r="A523" t="s">
         <v>236</v>
       </c>
@@ -28639,7 +28611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10">
       <c r="A524" t="s">
         <v>243</v>
       </c>
@@ -28671,7 +28643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10">
       <c r="A525" t="s">
         <v>31</v>
       </c>
@@ -28703,7 +28675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10">
       <c r="A526" t="s">
         <v>244</v>
       </c>
@@ -28735,7 +28707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10">
       <c r="A527" t="s">
         <v>245</v>
       </c>
@@ -28767,7 +28739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10">
       <c r="A528" t="s">
         <v>142</v>
       </c>
@@ -28799,7 +28771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10">
       <c r="A529" t="s">
         <v>188</v>
       </c>
@@ -28831,7 +28803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10">
       <c r="A530" t="s">
         <v>210</v>
       </c>
@@ -28863,7 +28835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10">
       <c r="A531" t="s">
         <v>210</v>
       </c>
@@ -28895,7 +28867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10">
       <c r="A532" t="s">
         <v>84</v>
       </c>
@@ -28927,7 +28899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10">
       <c r="A533" t="s">
         <v>84</v>
       </c>
@@ -28959,7 +28931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10">
       <c r="A534" t="s">
         <v>84</v>
       </c>
@@ -28991,7 +28963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10">
       <c r="A535" t="s">
         <v>42</v>
       </c>
@@ -29023,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10">
       <c r="A536" t="s">
         <v>246</v>
       </c>
@@ -29055,7 +29027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10">
       <c r="A537" t="s">
         <v>82</v>
       </c>
@@ -29087,7 +29059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10">
       <c r="A538" t="s">
         <v>78</v>
       </c>
@@ -29119,7 +29091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10">
       <c r="A539" t="s">
         <v>78</v>
       </c>
@@ -29151,7 +29123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10">
       <c r="A540" t="s">
         <v>78</v>
       </c>
@@ -29183,7 +29155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10">
       <c r="A541" t="s">
         <v>178</v>
       </c>
@@ -29215,7 +29187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10">
       <c r="A542" t="s">
         <v>247</v>
       </c>
@@ -29247,7 +29219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10">
       <c r="A543" t="s">
         <v>248</v>
       </c>
@@ -29279,7 +29251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10">
       <c r="A544" t="s">
         <v>248</v>
       </c>
@@ -29311,7 +29283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10">
       <c r="A545" t="s">
         <v>248</v>
       </c>
@@ -29343,7 +29315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10">
       <c r="A546" t="s">
         <v>249</v>
       </c>
@@ -29375,7 +29347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10">
       <c r="A547" t="s">
         <v>250</v>
       </c>
@@ -29407,7 +29379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:10">
       <c r="A548" t="s">
         <v>251</v>
       </c>
@@ -29439,7 +29411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:10">
       <c r="A549" t="s">
         <v>249</v>
       </c>
@@ -29471,7 +29443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:10">
       <c r="A550" t="s">
         <v>252</v>
       </c>
@@ -29503,7 +29475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:10">
       <c r="A551" t="s">
         <v>253</v>
       </c>
@@ -29535,7 +29507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10">
       <c r="A552" t="s">
         <v>254</v>
       </c>
@@ -29567,7 +29539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10">
       <c r="A553" t="s">
         <v>42</v>
       </c>
@@ -29599,7 +29571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:10">
       <c r="A554" t="s">
         <v>255</v>
       </c>
@@ -29631,7 +29603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:10">
       <c r="A555" t="s">
         <v>255</v>
       </c>
@@ -29663,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:10">
       <c r="A556" t="s">
         <v>152</v>
       </c>
@@ -29695,7 +29667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:10">
       <c r="A557" t="s">
         <v>255</v>
       </c>
@@ -29727,7 +29699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:10">
       <c r="A558" t="s">
         <v>256</v>
       </c>
@@ -29759,7 +29731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:10">
       <c r="A559" t="s">
         <v>165</v>
       </c>
@@ -29791,7 +29763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:10">
       <c r="A560" t="s">
         <v>257</v>
       </c>
@@ -29823,7 +29795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:10">
       <c r="A561" t="s">
         <v>258</v>
       </c>
@@ -29855,7 +29827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:10">
       <c r="A562" t="s">
         <v>84</v>
       </c>
@@ -29887,7 +29859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:10">
       <c r="A563" t="s">
         <v>182</v>
       </c>
@@ -29919,7 +29891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:10">
       <c r="A564" t="s">
         <v>192</v>
       </c>
@@ -29951,7 +29923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:10">
       <c r="A565" t="s">
         <v>221</v>
       </c>
@@ -29983,7 +29955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:10">
       <c r="A566" t="s">
         <v>259</v>
       </c>
@@ -30015,7 +29987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:10">
       <c r="A567" t="s">
         <v>259</v>
       </c>
@@ -30047,7 +30019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:10">
       <c r="A568" t="s">
         <v>260</v>
       </c>
@@ -30079,7 +30051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:10">
       <c r="A569" t="s">
         <v>261</v>
       </c>
@@ -30111,7 +30083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:10">
       <c r="A570" t="s">
         <v>31</v>
       </c>
@@ -30143,7 +30115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:10">
       <c r="A571" t="s">
         <v>262</v>
       </c>
@@ -30175,7 +30147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:10">
       <c r="A572" t="s">
         <v>189</v>
       </c>
@@ -30207,7 +30179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:10">
       <c r="A573" t="s">
         <v>191</v>
       </c>
@@ -30239,7 +30211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:10">
       <c r="A574" t="s">
         <v>263</v>
       </c>
@@ -30271,7 +30243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:10">
       <c r="A575" t="s">
         <v>264</v>
       </c>
@@ -30303,7 +30275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:10">
       <c r="A576" t="s">
         <v>169</v>
       </c>
@@ -30335,7 +30307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:10">
       <c r="A577" t="s">
         <v>264</v>
       </c>
@@ -30367,7 +30339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:10">
       <c r="A578" t="s">
         <v>191</v>
       </c>
@@ -30399,7 +30371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:10">
       <c r="A579" t="s">
         <v>250</v>
       </c>
@@ -30431,7 +30403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:10">
       <c r="A580" t="s">
         <v>192</v>
       </c>
@@ -30463,7 +30435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:10">
       <c r="A581" t="s">
         <v>84</v>
       </c>
@@ -30495,7 +30467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:10">
       <c r="A582" t="s">
         <v>265</v>
       </c>
@@ -30527,7 +30499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:10">
       <c r="A583" t="s">
         <v>230</v>
       </c>
@@ -30559,7 +30531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:10">
       <c r="A584" t="s">
         <v>266</v>
       </c>
@@ -30591,7 +30563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:10">
       <c r="A585" t="s">
         <v>266</v>
       </c>
@@ -30623,7 +30595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:10">
       <c r="A586" t="s">
         <v>266</v>
       </c>
@@ -30655,7 +30627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:10">
       <c r="A587" t="s">
         <v>266</v>
       </c>
@@ -30687,7 +30659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:10">
       <c r="A588" t="s">
         <v>169</v>
       </c>
@@ -30719,7 +30691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:10">
       <c r="A589" t="s">
         <v>192</v>
       </c>
@@ -30751,7 +30723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:10">
       <c r="A590" t="s">
         <v>245</v>
       </c>
@@ -30783,7 +30755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:10">
       <c r="A591" t="s">
         <v>245</v>
       </c>
@@ -30815,7 +30787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:10">
       <c r="A592" t="s">
         <v>104</v>
       </c>
@@ -30847,7 +30819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:10">
       <c r="A593" t="s">
         <v>267</v>
       </c>
@@ -30879,7 +30851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:10">
       <c r="A594" t="s">
         <v>264</v>
       </c>
@@ -30911,7 +30883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:10">
       <c r="A595" t="s">
         <v>262</v>
       </c>
@@ -30943,7 +30915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:10">
       <c r="A596" t="s">
         <v>268</v>
       </c>
@@ -30975,7 +30947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:10">
       <c r="A597" t="s">
         <v>138</v>
       </c>
@@ -31007,7 +30979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:10">
       <c r="A598" t="s">
         <v>221</v>
       </c>
@@ -31039,7 +31011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:10">
       <c r="A599" t="s">
         <v>269</v>
       </c>
@@ -31071,7 +31043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:10">
       <c r="A600" t="s">
         <v>269</v>
       </c>
@@ -31103,7 +31075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:10">
       <c r="A601" t="s">
         <v>104</v>
       </c>
@@ -31135,7 +31107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:10">
       <c r="A602" t="s">
         <v>224</v>
       </c>
@@ -31167,7 +31139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:10">
       <c r="A603" t="s">
         <v>270</v>
       </c>
@@ -31199,7 +31171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:10">
       <c r="A604" t="s">
         <v>104</v>
       </c>
@@ -31231,7 +31203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:10">
       <c r="A605" t="s">
         <v>271</v>
       </c>
@@ -31263,7 +31235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:10">
       <c r="A606" t="s">
         <v>272</v>
       </c>
@@ -31295,7 +31267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:10">
       <c r="A607" t="s">
         <v>190</v>
       </c>
@@ -31327,7 +31299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:10">
       <c r="A608" t="s">
         <v>273</v>
       </c>
@@ -31359,7 +31331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:10">
       <c r="A609" t="s">
         <v>273</v>
       </c>
@@ -31391,7 +31363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:10">
       <c r="A610" t="s">
         <v>192</v>
       </c>
@@ -31423,7 +31395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:10">
       <c r="A611" t="s">
         <v>102</v>
       </c>
@@ -31455,7 +31427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:10">
       <c r="A612" t="s">
         <v>102</v>
       </c>
@@ -31487,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:10">
       <c r="A613" t="s">
         <v>243</v>
       </c>
@@ -31519,7 +31491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:10">
       <c r="A614" t="s">
         <v>274</v>
       </c>
@@ -31551,7 +31523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:10">
       <c r="A615" t="s">
         <v>275</v>
       </c>
@@ -31583,7 +31555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:10">
       <c r="A616" t="s">
         <v>169</v>
       </c>
@@ -31615,7 +31587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:10">
       <c r="A617" t="s">
         <v>169</v>
       </c>
@@ -31647,7 +31619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:10">
       <c r="A618" t="s">
         <v>276</v>
       </c>
@@ -31679,7 +31651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:10">
       <c r="A619" t="s">
         <v>277</v>
       </c>
@@ -31711,7 +31683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:10">
       <c r="A620" t="s">
         <v>278</v>
       </c>
@@ -31743,7 +31715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:10">
       <c r="A621" t="s">
         <v>279</v>
       </c>
@@ -31775,7 +31747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:10">
       <c r="A622" t="s">
         <v>279</v>
       </c>
@@ -31807,7 +31779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:10">
       <c r="A623" t="s">
         <v>280</v>
       </c>
@@ -31839,7 +31811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:10">
       <c r="A624" t="s">
         <v>169</v>
       </c>
@@ -31871,7 +31843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:10">
       <c r="A625" t="s">
         <v>280</v>
       </c>
@@ -31903,7 +31875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:10">
       <c r="A626" t="s">
         <v>209</v>
       </c>
@@ -31935,7 +31907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:10">
       <c r="A627" t="s">
         <v>246</v>
       </c>
@@ -31967,7 +31939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:10">
       <c r="A628" t="s">
         <v>281</v>
       </c>
@@ -31999,7 +31971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:10">
       <c r="A629" t="s">
         <v>282</v>
       </c>
@@ -32031,7 +32003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:10">
       <c r="A630" t="s">
         <v>210</v>
       </c>
@@ -32063,7 +32035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:10">
       <c r="A631" t="s">
         <v>283</v>
       </c>
@@ -32095,7 +32067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:10">
       <c r="A632" t="s">
         <v>284</v>
       </c>
@@ -32127,7 +32099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:10">
       <c r="A633" t="s">
         <v>285</v>
       </c>
@@ -32159,7 +32131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:10">
       <c r="A634" t="s">
         <v>277</v>
       </c>
@@ -32191,7 +32163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:10">
       <c r="A635" t="s">
         <v>286</v>
       </c>
@@ -32223,7 +32195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:10">
       <c r="A636" t="s">
         <v>285</v>
       </c>
@@ -32255,7 +32227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:10">
       <c r="A637" t="s">
         <v>287</v>
       </c>
@@ -32287,7 +32259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:10">
       <c r="A638" t="s">
         <v>277</v>
       </c>
@@ -32319,7 +32291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:10">
       <c r="A639" t="s">
         <v>288</v>
       </c>
@@ -32351,7 +32323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:10">
       <c r="A640" t="s">
         <v>289</v>
       </c>
@@ -32383,7 +32355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:10">
       <c r="A641" t="s">
         <v>290</v>
       </c>
@@ -32415,7 +32387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:10">
       <c r="A642" t="s">
         <v>283</v>
       </c>
@@ -32447,7 +32419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:10">
       <c r="A643" t="s">
         <v>284</v>
       </c>
@@ -32479,7 +32451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:10">
       <c r="A644" t="s">
         <v>291</v>
       </c>
@@ -32511,7 +32483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:10">
       <c r="A645" t="s">
         <v>284</v>
       </c>
@@ -32543,7 +32515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:10">
       <c r="A646" t="s">
         <v>277</v>
       </c>
@@ -32575,7 +32547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:10">
       <c r="A647" t="s">
         <v>254</v>
       </c>
@@ -32607,7 +32579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:10">
       <c r="A648" t="s">
         <v>254</v>
       </c>
@@ -32639,7 +32611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:10">
       <c r="A649" t="s">
         <v>292</v>
       </c>
@@ -32671,7 +32643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:10">
       <c r="A650" t="s">
         <v>293</v>
       </c>
@@ -32703,7 +32675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:10">
       <c r="A651" t="s">
         <v>293</v>
       </c>
@@ -32735,7 +32707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:10">
       <c r="A652" t="s">
         <v>78</v>
       </c>
@@ -32767,7 +32739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:10">
       <c r="A653" t="s">
         <v>293</v>
       </c>
@@ -32799,7 +32771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:10">
       <c r="A654" t="s">
         <v>78</v>
       </c>
@@ -32831,7 +32803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:10">
       <c r="A655" t="s">
         <v>293</v>
       </c>
@@ -32863,7 +32835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:10">
       <c r="A656" t="s">
         <v>78</v>
       </c>
@@ -32895,7 +32867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:10">
       <c r="A657" t="s">
         <v>78</v>
       </c>
@@ -32927,7 +32899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:10">
       <c r="A658" t="s">
         <v>192</v>
       </c>
@@ -32959,7 +32931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:10">
       <c r="A659" t="s">
         <v>192</v>
       </c>
@@ -32991,7 +32963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:10">
       <c r="A660" t="s">
         <v>294</v>
       </c>
@@ -33023,7 +32995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:10">
       <c r="A661" t="s">
         <v>294</v>
       </c>
@@ -33055,7 +33027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:10">
       <c r="A662" t="s">
         <v>295</v>
       </c>
@@ -33087,7 +33059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:10">
       <c r="A663" t="s">
         <v>296</v>
       </c>
@@ -33119,7 +33091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:10">
       <c r="A664" t="s">
         <v>190</v>
       </c>
@@ -33151,7 +33123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:10">
       <c r="A665" t="s">
         <v>297</v>
       </c>
@@ -33183,7 +33155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:10">
       <c r="A666" t="s">
         <v>297</v>
       </c>
@@ -33215,7 +33187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:10">
       <c r="A667" t="s">
         <v>273</v>
       </c>
@@ -33247,7 +33219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:10">
       <c r="A668" t="s">
         <v>138</v>
       </c>
@@ -33279,7 +33251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:10">
       <c r="A669" t="s">
         <v>210</v>
       </c>
@@ -33311,7 +33283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:10">
       <c r="A670" t="s">
         <v>186</v>
       </c>
@@ -33343,7 +33315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:10">
       <c r="A671" t="s">
         <v>175</v>
       </c>
@@ -33375,7 +33347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:10">
       <c r="A672" t="s">
         <v>206</v>
       </c>
@@ -33407,7 +33379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:10">
       <c r="A673" t="s">
         <v>220</v>
       </c>
@@ -33439,7 +33411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:10">
       <c r="A674" t="s">
         <v>206</v>
       </c>
@@ -33471,7 +33443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:10">
       <c r="A675" t="s">
         <v>206</v>
       </c>
@@ -33503,7 +33475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:10">
       <c r="A676" t="s">
         <v>138</v>
       </c>
@@ -33535,7 +33507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:10">
       <c r="A677" t="s">
         <v>298</v>
       </c>
@@ -33567,7 +33539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:10">
       <c r="A678" t="s">
         <v>298</v>
       </c>
@@ -33599,7 +33571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:10">
       <c r="A679" t="s">
         <v>299</v>
       </c>
@@ -33631,7 +33603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:10">
       <c r="A680" t="s">
         <v>110</v>
       </c>
@@ -33663,7 +33635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:10">
       <c r="A681" t="s">
         <v>300</v>
       </c>
@@ -33695,7 +33667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:10">
       <c r="A682" t="s">
         <v>301</v>
       </c>
@@ -33727,7 +33699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:10">
       <c r="A683" t="s">
         <v>138</v>
       </c>
@@ -33759,7 +33731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:10">
       <c r="A684" t="s">
         <v>138</v>
       </c>
@@ -33791,7 +33763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:10">
       <c r="A685" t="s">
         <v>138</v>
       </c>
@@ -33823,7 +33795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:10">
       <c r="A686" t="s">
         <v>138</v>
       </c>
@@ -33855,7 +33827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:10">
       <c r="A687" t="s">
         <v>138</v>
       </c>
@@ -33887,7 +33859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:10">
       <c r="A688" t="s">
         <v>171</v>
       </c>
@@ -33919,7 +33891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:10">
       <c r="A689" t="s">
         <v>275</v>
       </c>
@@ -33951,7 +33923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:10">
       <c r="A690" t="s">
         <v>301</v>
       </c>
@@ -33983,7 +33955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:10">
       <c r="A691" t="s">
         <v>278</v>
       </c>
@@ -34015,7 +33987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:10">
       <c r="A692" t="s">
         <v>302</v>
       </c>
@@ -34047,7 +34019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:10">
       <c r="A693" t="s">
         <v>303</v>
       </c>
@@ -34079,7 +34051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:10">
       <c r="A694" t="s">
         <v>246</v>
       </c>
@@ -34111,7 +34083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:10">
       <c r="A695" t="s">
         <v>175</v>
       </c>
@@ -34143,7 +34115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:10">
       <c r="A696" t="s">
         <v>246</v>
       </c>
@@ -34175,7 +34147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:10">
       <c r="A697" t="s">
         <v>246</v>
       </c>
@@ -34207,7 +34179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:10">
       <c r="A698" t="s">
         <v>42</v>
       </c>
@@ -34239,7 +34211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:10">
       <c r="A699" t="s">
         <v>171</v>
       </c>
@@ -34271,7 +34243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:10">
       <c r="A700" t="s">
         <v>304</v>
       </c>
@@ -34303,7 +34275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:10">
       <c r="A701" t="s">
         <v>187</v>
       </c>
@@ -34335,7 +34307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:10">
       <c r="A702" t="s">
         <v>297</v>
       </c>
@@ -34367,7 +34339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:10">
       <c r="A703" t="s">
         <v>305</v>
       </c>
@@ -34399,7 +34371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:10">
       <c r="A704" t="s">
         <v>188</v>
       </c>
@@ -34431,7 +34403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:10">
       <c r="A705" t="s">
         <v>138</v>
       </c>
@@ -34463,7 +34435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:10">
       <c r="A706" t="s">
         <v>306</v>
       </c>
@@ -34495,7 +34467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:10">
       <c r="A707" t="s">
         <v>307</v>
       </c>
@@ -34527,7 +34499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:10">
       <c r="A708" t="s">
         <v>84</v>
       </c>
@@ -34559,7 +34531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:10">
       <c r="A709" t="s">
         <v>308</v>
       </c>
@@ -34591,7 +34563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:10">
       <c r="A710" t="s">
         <v>309</v>
       </c>
@@ -34623,7 +34595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:10">
       <c r="A711" t="s">
         <v>189</v>
       </c>
@@ -34655,7 +34627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:10">
       <c r="A712" t="s">
         <v>189</v>
       </c>
@@ -34687,7 +34659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:10">
       <c r="A713" t="s">
         <v>309</v>
       </c>
@@ -34719,7 +34691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:10">
       <c r="A714" t="s">
         <v>192</v>
       </c>
@@ -34751,7 +34723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:10">
       <c r="A715" t="s">
         <v>189</v>
       </c>
@@ -34783,7 +34755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:10">
       <c r="A716" t="s">
         <v>186</v>
       </c>
@@ -34815,7 +34787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:10">
       <c r="A717" t="s">
         <v>216</v>
       </c>
@@ -34847,7 +34819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:10">
       <c r="A718" t="s">
         <v>192</v>
       </c>
@@ -34879,7 +34851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:10">
       <c r="A719" t="s">
         <v>216</v>
       </c>
@@ -34911,7 +34883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:10">
       <c r="A720" t="s">
         <v>191</v>
       </c>
@@ -34943,7 +34915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:10">
       <c r="A721" t="s">
         <v>247</v>
       </c>
@@ -34975,7 +34947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:10">
       <c r="A722" t="s">
         <v>310</v>
       </c>
@@ -35007,7 +34979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:10">
       <c r="A723" t="s">
         <v>311</v>
       </c>
@@ -35039,7 +35011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:10">
       <c r="A724" t="s">
         <v>312</v>
       </c>
@@ -35071,7 +35043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:10">
       <c r="A725" t="s">
         <v>313</v>
       </c>
@@ -35103,7 +35075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:10">
       <c r="A726" t="s">
         <v>314</v>
       </c>
@@ -35135,7 +35107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:10">
       <c r="A727" t="s">
         <v>313</v>
       </c>
@@ -35167,7 +35139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:10">
       <c r="A728" t="s">
         <v>315</v>
       </c>
@@ -35199,7 +35171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:10">
       <c r="A729" t="s">
         <v>316</v>
       </c>
@@ -35231,7 +35203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:10">
       <c r="A730" t="s">
         <v>317</v>
       </c>
@@ -35263,7 +35235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:10">
       <c r="A731" t="s">
         <v>318</v>
       </c>
@@ -35295,7 +35267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:10">
       <c r="A732" t="s">
         <v>319</v>
       </c>
@@ -35327,7 +35299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:10">
       <c r="A733" t="s">
         <v>320</v>
       </c>
@@ -35359,7 +35331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:10">
       <c r="A734" t="s">
         <v>320</v>
       </c>
@@ -35391,7 +35363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:10">
       <c r="A735" t="s">
         <v>321</v>
       </c>
@@ -35423,7 +35395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:10">
       <c r="A736" t="s">
         <v>322</v>
       </c>
@@ -35455,7 +35427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:10">
       <c r="A737" t="s">
         <v>322</v>
       </c>
@@ -35487,7 +35459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:10">
       <c r="A738" t="s">
         <v>322</v>
       </c>
@@ -35519,7 +35491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:10">
       <c r="A739" t="s">
         <v>322</v>
       </c>
@@ -35551,7 +35523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:10">
       <c r="A740" t="s">
         <v>323</v>
       </c>
@@ -35583,7 +35555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:10">
       <c r="A741" t="s">
         <v>324</v>
       </c>
@@ -35615,7 +35587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:10">
       <c r="A742" t="s">
         <v>325</v>
       </c>
@@ -35647,7 +35619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:10">
       <c r="A743" t="s">
         <v>326</v>
       </c>
@@ -35679,7 +35651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:10">
       <c r="A744" t="s">
         <v>327</v>
       </c>
@@ -35711,7 +35683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:10">
       <c r="A745" t="s">
         <v>321</v>
       </c>
@@ -35743,7 +35715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:10">
       <c r="A746" t="s">
         <v>328</v>
       </c>
@@ -35775,7 +35747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:10">
       <c r="A747" t="s">
         <v>321</v>
       </c>
@@ -35807,7 +35779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:10">
       <c r="A748" t="s">
         <v>329</v>
       </c>
@@ -35839,7 +35811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:10">
       <c r="A749" t="s">
         <v>330</v>
       </c>
@@ -35871,7 +35843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:10">
       <c r="A750" t="s">
         <v>331</v>
       </c>
@@ -35903,7 +35875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:10">
       <c r="A751" t="s">
         <v>200</v>
       </c>
@@ -35935,7 +35907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:10">
       <c r="A752" t="s">
         <v>332</v>
       </c>
@@ -35967,7 +35939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:10">
       <c r="A753" t="s">
         <v>333</v>
       </c>
